--- a/IO_test/RunControl_test.xlsx
+++ b/IO_test/RunControl_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\IO_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AI9" sqref="AI9"/>
@@ -2167,7 +2167,7 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,7 +2225,7 @@
         <v>0.12</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,10 +2346,10 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>20</v>

--- a/IO_test/RunControl_test.xlsx
+++ b/IO_test/RunControl_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -2166,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2304,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
